--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1846499645128823</v>
+        <v>-0.04550424379278954</v>
       </c>
       <c r="C2">
-        <v>0.3286317694782574</v>
+        <v>0.7456538105835401</v>
       </c>
       <c r="D2">
-        <v>0.1436306276722454</v>
+        <v>0.9754175274495978</v>
       </c>
       <c r="E2">
-        <v>0.3789863159432612</v>
+        <v>0.9876322835193257</v>
       </c>
       <c r="F2">
-        <v>0.3434542020624846</v>
+        <v>1.0238260247887</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.233782821996482</v>
+        <v>-0.2467860954471002</v>
       </c>
       <c r="C3">
-        <v>0.3388970847707053</v>
+        <v>0.6225602973041534</v>
       </c>
       <c r="D3">
-        <v>0.1655287296221466</v>
+        <v>0.6404695297949983</v>
       </c>
       <c r="E3">
-        <v>0.4068522208642182</v>
+        <v>0.8002934023187985</v>
       </c>
       <c r="F3">
-        <v>0.3465744488201153</v>
+        <v>0.7923782760124026</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2458936592101665</v>
+        <v>-0.2262603741813949</v>
       </c>
       <c r="C4">
-        <v>0.3376087397224064</v>
+        <v>0.5866867510802006</v>
       </c>
       <c r="D4">
-        <v>0.1683199266210677</v>
+        <v>0.6375812921102284</v>
       </c>
       <c r="E4">
-        <v>0.4102681155306463</v>
+        <v>0.7984868766048873</v>
       </c>
       <c r="F4">
-        <v>0.3430179984378804</v>
+        <v>0.7998096604378206</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3159117303356485</v>
+        <v>-0.1929528870395856</v>
       </c>
       <c r="C5">
-        <v>0.3616440827783581</v>
+        <v>0.5902456523507005</v>
       </c>
       <c r="D5">
-        <v>0.1787997951629203</v>
+        <v>0.6751142996204421</v>
       </c>
       <c r="E5">
-        <v>0.4228472480257148</v>
+        <v>0.8216533938470906</v>
       </c>
       <c r="F5">
-        <v>0.2947872642757529</v>
+        <v>0.8376585409962011</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3613841914352868</v>
+        <v>-0.1825922693999573</v>
       </c>
       <c r="C6">
-        <v>0.3878336576990399</v>
+        <v>0.6080227476365367</v>
       </c>
       <c r="D6">
-        <v>0.1879947191939926</v>
+        <v>0.7020402897296509</v>
       </c>
       <c r="E6">
-        <v>0.4335835780953801</v>
+        <v>0.8378784456767288</v>
       </c>
       <c r="F6">
-        <v>0.2525342339271529</v>
+        <v>0.8619747050200901</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3988547682532156</v>
+        <v>-0.1975866722726227</v>
       </c>
       <c r="C7">
-        <v>0.4022908700834479</v>
+        <v>0.6987575864756779</v>
       </c>
       <c r="D7">
-        <v>0.2200318796559833</v>
+        <v>0.7662839300513234</v>
       </c>
       <c r="E7">
-        <v>0.469075558578768</v>
+        <v>0.8753764504779207</v>
       </c>
       <c r="F7">
-        <v>0.266654356325312</v>
+        <v>0.9045158188862696</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3928596444970414</v>
+        <v>-0.2231692882927663</v>
       </c>
       <c r="C8">
-        <v>0.3928596444970414</v>
+        <v>0.705494696849475</v>
       </c>
       <c r="D8">
-        <v>0.2196287446522761</v>
+        <v>0.8561635644106061</v>
       </c>
       <c r="E8">
-        <v>0.4686456493474319</v>
+        <v>0.925291070102055</v>
       </c>
       <c r="F8">
-        <v>0.2950481189635218</v>
+        <v>0.9836822860091603</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2823252489197217</v>
+        <v>-0.3707202268862896</v>
       </c>
       <c r="C9">
-        <v>0.2823252489197217</v>
+        <v>0.3707202268862896</v>
       </c>
       <c r="D9">
-        <v>0.0797075461775828</v>
+        <v>0.18691442846061</v>
       </c>
       <c r="E9">
-        <v>0.2823252489197217</v>
+        <v>0.4323360133745627</v>
+      </c>
+      <c r="F9">
+        <v>0.2724360709542369</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.3121643713505491</v>
+      </c>
+      <c r="C10">
+        <v>0.3121643713505491</v>
+      </c>
+      <c r="D10">
+        <v>0.09744659474068354</v>
+      </c>
+      <c r="E10">
+        <v>0.3121643713505491</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04550424379278954</v>
+        <v>-0.2230573992474752</v>
       </c>
       <c r="C2">
-        <v>0.7456538105835401</v>
+        <v>0.2854886207816306</v>
       </c>
       <c r="D2">
-        <v>0.9754175274495978</v>
+        <v>0.127389058624141</v>
       </c>
       <c r="E2">
-        <v>0.9876322835193257</v>
+        <v>0.3569160386199267</v>
       </c>
       <c r="F2">
-        <v>1.0238260247887</v>
+        <v>0.2891476032052339</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2467860954471002</v>
+        <v>-0.2042933947234856</v>
       </c>
       <c r="C3">
-        <v>0.6225602973041534</v>
+        <v>0.2861682746732524</v>
       </c>
       <c r="D3">
-        <v>0.6404695297949983</v>
+        <v>0.1727834463265767</v>
       </c>
       <c r="E3">
-        <v>0.8002934023187985</v>
+        <v>0.4156722823650582</v>
       </c>
       <c r="F3">
-        <v>0.7923782760124026</v>
+        <v>0.3767868006342249</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2262603741813949</v>
+        <v>-0.2126892945567086</v>
       </c>
       <c r="C4">
-        <v>0.5866867510802006</v>
+        <v>0.3122101537896099</v>
       </c>
       <c r="D4">
-        <v>0.6375812921102284</v>
+        <v>0.1603748835476225</v>
       </c>
       <c r="E4">
-        <v>0.7984868766048873</v>
+        <v>0.4004683302679782</v>
       </c>
       <c r="F4">
-        <v>0.7998096604378206</v>
+        <v>0.3544083123310924</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1929528870395856</v>
+        <v>-0.1809481785306808</v>
       </c>
       <c r="C5">
-        <v>0.5902456523507005</v>
+        <v>0.267150876214921</v>
       </c>
       <c r="D5">
-        <v>0.6751142996204421</v>
+        <v>0.08966209893550295</v>
       </c>
       <c r="E5">
-        <v>0.8216533938470906</v>
+        <v>0.2994363019667171</v>
       </c>
       <c r="F5">
-        <v>0.8376585409962011</v>
+        <v>0.2502235823900796</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1825922693999573</v>
+        <v>-0.1763213443630235</v>
       </c>
       <c r="C6">
-        <v>0.6080227476365367</v>
+        <v>0.2237613264222619</v>
       </c>
       <c r="D6">
-        <v>0.7020402897296509</v>
+        <v>0.09028189153338712</v>
       </c>
       <c r="E6">
-        <v>0.8378784456767288</v>
+        <v>0.3004694519138129</v>
       </c>
       <c r="F6">
-        <v>0.8619747050200901</v>
+        <v>0.2564559200924167</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1975866722726227</v>
+        <v>-0.182531442650734</v>
       </c>
       <c r="C7">
-        <v>0.6987575864756779</v>
+        <v>0.2539746169011773</v>
       </c>
       <c r="D7">
-        <v>0.7662839300513234</v>
+        <v>0.08014903705961754</v>
       </c>
       <c r="E7">
-        <v>0.8753764504779207</v>
+        <v>0.2831060526721701</v>
       </c>
       <c r="F7">
-        <v>0.9045158188862696</v>
+        <v>0.2295326190139252</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2231692882927663</v>
+        <v>-0.1031535539421949</v>
       </c>
       <c r="C8">
-        <v>0.705494696849475</v>
+        <v>0.1812455504833794</v>
       </c>
       <c r="D8">
-        <v>0.8561635644106061</v>
+        <v>0.05114288788033396</v>
       </c>
       <c r="E8">
-        <v>0.925291070102055</v>
+        <v>0.2261479336194208</v>
       </c>
       <c r="F8">
-        <v>0.9836822860091603</v>
+        <v>0.2204601520168994</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.3707202268862896</v>
+        <v>-0.135926032552076</v>
       </c>
       <c r="C9">
-        <v>0.3707202268862896</v>
+        <v>0.1991159763380844</v>
       </c>
       <c r="D9">
-        <v>0.18691442846061</v>
+        <v>0.04509109148225762</v>
       </c>
       <c r="E9">
-        <v>0.4323360133745627</v>
+        <v>0.2123466304942407</v>
       </c>
       <c r="F9">
-        <v>0.2724360709542369</v>
+        <v>0.1998069261446269</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.3121643713505491</v>
+        <v>-0.3880619836346724</v>
       </c>
       <c r="C10">
-        <v>0.3121643713505491</v>
+        <v>0.3880619836346724</v>
       </c>
       <c r="D10">
-        <v>0.09744659474068354</v>
+        <v>0.1505921031424768</v>
       </c>
       <c r="E10">
-        <v>0.3121643713505491</v>
+        <v>0.3880619836346724</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2230573992474752</v>
+        <v>0.03678685664255971</v>
       </c>
       <c r="C2">
-        <v>0.2854886207816306</v>
+        <v>0.6869725908349552</v>
       </c>
       <c r="D2">
-        <v>0.127389058624141</v>
+        <v>1.143126198255408</v>
       </c>
       <c r="E2">
-        <v>0.3569160386199267</v>
+        <v>1.069170799383994</v>
       </c>
       <c r="F2">
-        <v>0.2891476032052339</v>
+        <v>1.079170229362562</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2042933947234856</v>
+        <v>-0.183591446892805</v>
       </c>
       <c r="C3">
-        <v>0.2861682746732524</v>
+        <v>0.4867160004773056</v>
       </c>
       <c r="D3">
-        <v>0.1727834463265767</v>
+        <v>0.4160893806761118</v>
       </c>
       <c r="E3">
-        <v>0.4156722823650582</v>
+        <v>0.6450499055701906</v>
       </c>
       <c r="F3">
-        <v>0.3767868006342249</v>
+        <v>0.6246497478211112</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2126892945567086</v>
+        <v>-0.03936449295927064</v>
       </c>
       <c r="C4">
-        <v>0.3122101537896099</v>
+        <v>0.5795287071841984</v>
       </c>
       <c r="D4">
-        <v>0.1603748835476225</v>
+        <v>0.7040057845192284</v>
       </c>
       <c r="E4">
-        <v>0.4004683302679782</v>
+        <v>0.839050525605716</v>
       </c>
       <c r="F4">
-        <v>0.3544083123310924</v>
+        <v>0.8468120959350416</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1809481785306808</v>
+        <v>-0.1295444554373254</v>
       </c>
       <c r="C5">
-        <v>0.267150876214921</v>
+        <v>0.4050807838040723</v>
       </c>
       <c r="D5">
-        <v>0.08966209893550295</v>
+        <v>0.2941531664628659</v>
       </c>
       <c r="E5">
-        <v>0.2994363019667171</v>
+        <v>0.5423588908304776</v>
       </c>
       <c r="F5">
-        <v>0.2502235823900796</v>
+        <v>0.5322338956591262</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1763213443630235</v>
+        <v>0.00637098485360963</v>
       </c>
       <c r="C6">
-        <v>0.2237613264222619</v>
+        <v>0.5886252521369484</v>
       </c>
       <c r="D6">
-        <v>0.09028189153338712</v>
+        <v>0.7430823678720198</v>
       </c>
       <c r="E6">
-        <v>0.3004694519138129</v>
+        <v>0.8620222548588985</v>
       </c>
       <c r="F6">
-        <v>0.2564559200924167</v>
+        <v>0.8713178872051619</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.182531442650734</v>
+        <v>-0.132221774258578</v>
       </c>
       <c r="C7">
-        <v>0.2539746169011773</v>
+        <v>0.3680198856531414</v>
       </c>
       <c r="D7">
-        <v>0.08014903705961754</v>
+        <v>0.2162217108530362</v>
       </c>
       <c r="E7">
-        <v>0.2831060526721701</v>
+        <v>0.4649964632693846</v>
       </c>
       <c r="F7">
-        <v>0.2295326190139252</v>
+        <v>0.4507277870335607</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1031535539421949</v>
+        <v>0.07610304665680741</v>
       </c>
       <c r="C8">
-        <v>0.1812455504833794</v>
+        <v>0.5642969124478534</v>
       </c>
       <c r="D8">
-        <v>0.05114288788033396</v>
+        <v>0.6783264378029779</v>
       </c>
       <c r="E8">
-        <v>0.2261479336194208</v>
+        <v>0.8236057538670901</v>
       </c>
       <c r="F8">
-        <v>0.2204601520168994</v>
+        <v>0.8293489284340051</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.135926032552076</v>
+        <v>-0.07952857203228597</v>
       </c>
       <c r="C9">
-        <v>0.1991159763380844</v>
+        <v>0.3289968720127114</v>
       </c>
       <c r="D9">
-        <v>0.04509109148225762</v>
+        <v>0.1737617843583987</v>
       </c>
       <c r="E9">
-        <v>0.2123466304942407</v>
+        <v>0.4168474353506312</v>
       </c>
       <c r="F9">
-        <v>0.1998069261446269</v>
+        <v>0.4139213380474263</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.3880619836346724</v>
+        <v>0.1447151924720829</v>
       </c>
       <c r="C10">
-        <v>0.3880619836346724</v>
+        <v>0.5826609323638429</v>
       </c>
       <c r="D10">
-        <v>0.1505921031424768</v>
+        <v>0.8037054263539364</v>
       </c>
       <c r="E10">
-        <v>0.3880619836346724</v>
+        <v>0.8964961942774416</v>
+      </c>
+      <c r="F10">
+        <v>0.8952095577377838</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.06616833373077866</v>
+      </c>
+      <c r="C11">
+        <v>0.3497216611734643</v>
+      </c>
+      <c r="D11">
+        <v>0.2089885319410827</v>
+      </c>
+      <c r="E11">
+        <v>0.4571526352774122</v>
+      </c>
+      <c r="F11">
+        <v>0.4578217756651212</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03678685664255971</v>
+        <v>-0.3072063324736731</v>
       </c>
       <c r="C2">
-        <v>0.6869725908349552</v>
+        <v>0.5773635797369776</v>
       </c>
       <c r="D2">
-        <v>1.143126198255408</v>
+        <v>0.6188915608581815</v>
       </c>
       <c r="E2">
-        <v>1.069170799383994</v>
+        <v>0.7866966129698166</v>
       </c>
       <c r="F2">
-        <v>1.079170229362562</v>
+        <v>0.733013573663008</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.183591446892805</v>
+        <v>0.06855553159162397</v>
       </c>
       <c r="C3">
-        <v>0.4867160004773056</v>
+        <v>0.8104126323077684</v>
       </c>
       <c r="D3">
-        <v>0.4160893806761118</v>
+        <v>1.411859963597413</v>
       </c>
       <c r="E3">
-        <v>0.6450499055701906</v>
+        <v>1.188217136552664</v>
       </c>
       <c r="F3">
-        <v>0.6246497478211112</v>
+        <v>1.200974231718875</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03936449295927064</v>
+        <v>-0.2062133925061186</v>
       </c>
       <c r="C4">
-        <v>0.5795287071841984</v>
+        <v>0.5585097485030701</v>
       </c>
       <c r="D4">
-        <v>0.7040057845192284</v>
+        <v>0.5025698948149058</v>
       </c>
       <c r="E4">
-        <v>0.839050525605716</v>
+        <v>0.7089216422249399</v>
       </c>
       <c r="F4">
-        <v>0.8468120959350416</v>
+        <v>0.6869075491602615</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1295444554373254</v>
+        <v>-0.02557072480903762</v>
       </c>
       <c r="C5">
-        <v>0.4050807838040723</v>
+        <v>0.6736167808661312</v>
       </c>
       <c r="D5">
-        <v>0.2941531664628659</v>
+        <v>0.868848526268419</v>
       </c>
       <c r="E5">
-        <v>0.5423588908304776</v>
+        <v>0.9321204462237801</v>
       </c>
       <c r="F5">
-        <v>0.5322338956591262</v>
+        <v>0.9439501535086928</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.00637098485360963</v>
+        <v>-0.1229089188492291</v>
       </c>
       <c r="C6">
-        <v>0.5886252521369484</v>
+        <v>0.4460013948249449</v>
       </c>
       <c r="D6">
-        <v>0.7430823678720198</v>
+        <v>0.350767677791658</v>
       </c>
       <c r="E6">
-        <v>0.8620222548588985</v>
+        <v>0.592256429084276</v>
       </c>
       <c r="F6">
-        <v>0.8713178872051619</v>
+        <v>0.5871396736870387</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.132221774258578</v>
+        <v>0.05574729004729425</v>
       </c>
       <c r="C7">
-        <v>0.3680198856531414</v>
+        <v>0.6872371239517284</v>
       </c>
       <c r="D7">
-        <v>0.2162217108530362</v>
+        <v>0.9195149290446228</v>
       </c>
       <c r="E7">
-        <v>0.4649964632693846</v>
+        <v>0.9589134106083942</v>
       </c>
       <c r="F7">
-        <v>0.4507277870335607</v>
+        <v>0.9704962253316772</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.07610304665680741</v>
+        <v>-0.1214114959447097</v>
       </c>
       <c r="C8">
-        <v>0.5642969124478534</v>
+        <v>0.4048482891640412</v>
       </c>
       <c r="D8">
-        <v>0.6783264378029779</v>
+        <v>0.2561152986148548</v>
       </c>
       <c r="E8">
-        <v>0.8236057538670901</v>
+        <v>0.5060783522487944</v>
       </c>
       <c r="F8">
-        <v>0.8293489284340051</v>
+        <v>0.4982679629511933</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07952857203228597</v>
+        <v>0.1522458912649086</v>
       </c>
       <c r="C9">
-        <v>0.3289968720127114</v>
+        <v>0.6577382853197382</v>
       </c>
       <c r="D9">
-        <v>0.1737617843583987</v>
+        <v>0.8416789472939559</v>
       </c>
       <c r="E9">
-        <v>0.4168474353506312</v>
+        <v>0.9174306226053041</v>
       </c>
       <c r="F9">
-        <v>0.4139213380474263</v>
+        <v>0.9179181168793588</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1447151924720829</v>
+        <v>-0.03691504020070672</v>
       </c>
       <c r="C10">
-        <v>0.5826609323638429</v>
+        <v>0.3541807863119035</v>
       </c>
       <c r="D10">
-        <v>0.8037054263539364</v>
+        <v>0.2034857836490605</v>
       </c>
       <c r="E10">
-        <v>0.8964961942774416</v>
+        <v>0.4510939853833794</v>
       </c>
       <c r="F10">
-        <v>0.8952095577377838</v>
+        <v>0.4563419822598951</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06616833373077866</v>
+        <v>0.2613592320042264</v>
       </c>
       <c r="C11">
-        <v>0.3497216611734643</v>
+        <v>0.6789426103936371</v>
       </c>
       <c r="D11">
-        <v>0.2089885319410827</v>
+        <v>1.020165729568819</v>
       </c>
       <c r="E11">
-        <v>0.4571526352774122</v>
+        <v>1.010032538866357</v>
       </c>
       <c r="F11">
-        <v>0.4578217756651212</v>
+        <v>0.9907586059223498</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3072063324736731</v>
+        <v>-0.1829735462431551</v>
       </c>
       <c r="C2">
-        <v>0.5773635797369776</v>
+        <v>0.6694626356775797</v>
       </c>
       <c r="D2">
-        <v>0.6188915608581815</v>
+        <v>0.8372369824267251</v>
       </c>
       <c r="E2">
-        <v>0.7866966129698166</v>
+        <v>0.9150065477507389</v>
       </c>
       <c r="F2">
-        <v>0.733013573663008</v>
+        <v>0.905446197782048</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06855553159162397</v>
+        <v>0.1263938744343593</v>
       </c>
       <c r="C3">
-        <v>0.8104126323077684</v>
+        <v>0.8614631615508216</v>
       </c>
       <c r="D3">
-        <v>1.411859963597413</v>
+        <v>1.473077372104747</v>
       </c>
       <c r="E3">
-        <v>1.188217136552664</v>
+        <v>1.213703988666408</v>
       </c>
       <c r="F3">
-        <v>1.200974231718875</v>
+        <v>1.219359969539984</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2062133925061186</v>
+        <v>-0.09485759795785621</v>
       </c>
       <c r="C4">
-        <v>0.5585097485030701</v>
+        <v>0.6206824703513352</v>
       </c>
       <c r="D4">
-        <v>0.5025698948149058</v>
+        <v>0.6573762981246858</v>
       </c>
       <c r="E4">
-        <v>0.7089216422249399</v>
+        <v>0.8107874555792571</v>
       </c>
       <c r="F4">
-        <v>0.6869075491602615</v>
+        <v>0.813563898042168</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02557072480903762</v>
+        <v>0.05113506990239874</v>
       </c>
       <c r="C5">
-        <v>0.6736167808661312</v>
+        <v>0.7519750174941408</v>
       </c>
       <c r="D5">
-        <v>0.868848526268419</v>
+        <v>1.034754511348446</v>
       </c>
       <c r="E5">
-        <v>0.9321204462237801</v>
+        <v>1.017228839223725</v>
       </c>
       <c r="F5">
-        <v>0.9439501535086928</v>
+        <v>1.026693788557885</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1229089188492291</v>
+        <v>-0.03772088114894339</v>
       </c>
       <c r="C6">
-        <v>0.4460013948249449</v>
+        <v>0.5996523225882197</v>
       </c>
       <c r="D6">
-        <v>0.350767677791658</v>
+        <v>0.6704444970345537</v>
       </c>
       <c r="E6">
-        <v>0.592256429084276</v>
+        <v>0.8188067519473405</v>
       </c>
       <c r="F6">
-        <v>0.5871396736870387</v>
+        <v>0.8267802493317774</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05574729004729425</v>
+        <v>0.1077066685141252</v>
       </c>
       <c r="C7">
-        <v>0.6872371239517284</v>
+        <v>0.790586417127402</v>
       </c>
       <c r="D7">
-        <v>0.9195149290446228</v>
+        <v>1.154731043345991</v>
       </c>
       <c r="E7">
-        <v>0.9589134106083942</v>
+        <v>1.074584125764936</v>
       </c>
       <c r="F7">
-        <v>0.9704962253316772</v>
+        <v>1.080987147395736</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1214114959447097</v>
+        <v>-0.03868616839471213</v>
       </c>
       <c r="C8">
-        <v>0.4048482891640412</v>
+        <v>0.5498893294951147</v>
       </c>
       <c r="D8">
-        <v>0.2561152986148548</v>
+        <v>0.5944205642755658</v>
       </c>
       <c r="E8">
-        <v>0.5060783522487944</v>
+        <v>0.7709867471465159</v>
       </c>
       <c r="F8">
-        <v>0.4982679629511933</v>
+        <v>0.7787165651551944</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1522458912649086</v>
+        <v>0.1749977985370214</v>
       </c>
       <c r="C9">
-        <v>0.6577382853197382</v>
+        <v>0.7501568359084184</v>
       </c>
       <c r="D9">
-        <v>0.8416789472939559</v>
+        <v>1.058248496194531</v>
       </c>
       <c r="E9">
-        <v>0.9174306226053041</v>
+        <v>1.028712056988996</v>
       </c>
       <c r="F9">
-        <v>0.9179181168793588</v>
+        <v>1.025437714082251</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03691504020070672</v>
+        <v>0.02191909566903653</v>
       </c>
       <c r="C10">
-        <v>0.3541807863119035</v>
+        <v>0.5542941723622423</v>
       </c>
       <c r="D10">
-        <v>0.2034857836490605</v>
+        <v>0.633576040990445</v>
       </c>
       <c r="E10">
-        <v>0.4510939853833794</v>
+        <v>0.7959748997238826</v>
       </c>
       <c r="F10">
-        <v>0.4563419822598951</v>
+        <v>0.8050896216323691</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2613592320042264</v>
+        <v>0.2576676093386086</v>
       </c>
       <c r="C11">
-        <v>0.6789426103936371</v>
+        <v>0.7888566722486881</v>
       </c>
       <c r="D11">
-        <v>1.020165729568819</v>
+        <v>1.23948852930275</v>
       </c>
       <c r="E11">
-        <v>1.010032538866357</v>
+        <v>1.113323191756441</v>
       </c>
       <c r="F11">
-        <v>0.9907586059223498</v>
+        <v>1.096224442490078</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1077066685141252</v>
+        <v>-0.09360001116797961</v>
       </c>
       <c r="C7">
-        <v>0.790586417127402</v>
+        <v>0.6773215120173049</v>
       </c>
       <c r="D7">
-        <v>1.154731043345991</v>
+        <v>0.8387150314969378</v>
       </c>
       <c r="E7">
-        <v>1.074584125764936</v>
+        <v>0.9158138629093457</v>
       </c>
       <c r="F7">
-        <v>1.080987147395736</v>
+        <v>0.9232471286017232</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03868616839471213</v>
+        <v>-0.07158090847683796</v>
       </c>
       <c r="C8">
-        <v>0.5498893294951147</v>
+        <v>0.5716789624051219</v>
       </c>
       <c r="D8">
-        <v>0.5944205642755658</v>
+        <v>0.6667522629364007</v>
       </c>
       <c r="E8">
-        <v>0.7709867471465159</v>
+        <v>0.8165489960415117</v>
       </c>
       <c r="F8">
-        <v>0.7787165651551944</v>
+        <v>0.8246253720071778</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1749977985370214</v>
+        <v>-0.347548237505526</v>
       </c>
       <c r="C9">
-        <v>0.7501568359084184</v>
+        <v>0.4489756673986917</v>
       </c>
       <c r="D9">
-        <v>1.058248496194531</v>
+        <v>0.2984715574757459</v>
       </c>
       <c r="E9">
-        <v>1.028712056988996</v>
+        <v>0.5463255050569632</v>
       </c>
       <c r="F9">
-        <v>1.025437714082251</v>
+        <v>0.4324736439581862</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02191909566903653</v>
+        <v>-0.2871006105435207</v>
       </c>
       <c r="C10">
-        <v>0.5542941723622423</v>
+        <v>0.4966077703424752</v>
       </c>
       <c r="D10">
-        <v>0.633576040990445</v>
+        <v>0.3494510458411312</v>
       </c>
       <c r="E10">
-        <v>0.7959748997238826</v>
+        <v>0.5911438453042805</v>
       </c>
       <c r="F10">
-        <v>0.8050896216323691</v>
+        <v>0.5378441308026808</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2576676093386086</v>
+        <v>-0.3134163365220089</v>
       </c>
       <c r="C11">
-        <v>0.7888566722486881</v>
+        <v>0.3880630270395826</v>
       </c>
       <c r="D11">
-        <v>1.23948852930275</v>
+        <v>0.2215234913900424</v>
       </c>
       <c r="E11">
-        <v>1.113323191756441</v>
+        <v>0.4706628213382085</v>
       </c>
       <c r="F11">
-        <v>1.096224442490078</v>
+        <v>0.3925775264058765</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
